--- a/Service.MedicalRecord/wwwroot/layout/excel/cita/CitaListado.xlsx
+++ b/Service.MedicalRecord/wwwroot/layout/excel/cita/CitaListado.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ResposAxsis\API\Service.MedicalRecord\wwwroot\layout\excel\cita\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D358C0-9097-4D42-8186-4B28113B072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E803B6F-366C-4BAF-A9D1-B140BBF978F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotizaciones" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Cotizaciones">Cotizaciones!$A$4:$H$5</definedName>
+    <definedName name="Cotizaciones">Cotizaciones!$A$4:$F$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -595,17 +595,17 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.1796875" customWidth="1"/>
+    <col min="6" max="6" width="28.26953125" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -639,7 +639,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -659,16 +659,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
     </row>
   </sheetData>
